--- a/I24_excel_2025.xlsx
+++ b/I24_excel_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\02_MIS_2025_Fall_이걸로 강의_ _\36_Make_HP_read_txt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A63104D-1D5C-4F8D-947A-171F6DC15F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EB74E1-4D36-4D6A-B619-F14AA2D789A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="975" windowWidth="18210" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7133" yWindow="532" windowWidth="18210" windowHeight="11641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="125">
   <si>
     <r>
       <rPr>
@@ -1342,6 +1342,22 @@
   </si>
   <si>
     <t>etc</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>I24A,B,C,D,E</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prof: S.S.Kim</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Others</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1349,7 +1365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1420,6 +1436,12 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1587,7 +1609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1627,35 +1649,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1702,29 +1730,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2030,10 +2082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -2042,273 +2094,244 @@
     <col min="2" max="2" width="1.140625" customWidth="1"/>
     <col min="3" max="3" width="7.35546875" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="11" width="2.640625" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="3.140625" customWidth="1"/>
-    <col min="14" max="14" width="2.85546875" customWidth="1"/>
-    <col min="15" max="15" width="2.640625" customWidth="1"/>
-    <col min="16" max="16" width="8.640625" customWidth="1"/>
-    <col min="17" max="17" width="0.85546875" customWidth="1"/>
-    <col min="18" max="18" width="1.5" customWidth="1"/>
-    <col min="19" max="21" width="2.640625" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" customWidth="1"/>
-    <col min="23" max="23" width="2.640625" customWidth="1"/>
-    <col min="24" max="26" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="9" width="2.640625" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" customWidth="1"/>
+    <col min="13" max="13" width="2.640625" customWidth="1"/>
+    <col min="14" max="14" width="8.640625" customWidth="1"/>
+    <col min="15" max="18" width="2.640625" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42" t="s">
+      <c r="H2" s="2">
         <v>2</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="43" t="s">
+      <c r="I2" s="2">
         <v>3</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="J2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3</v>
+      </c>
+      <c r="R2" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="S2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T2" s="55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6">
+        <v>202490017</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6">
+        <v>202490023</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6">
+        <v>202490084</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6">
+        <v>202490081</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
         <v>5</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2</v>
-      </c>
-      <c r="O4" s="2">
-        <v>3</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="2">
-        <v>1</v>
-      </c>
-      <c r="T4" s="2">
-        <v>2</v>
-      </c>
-      <c r="U4" s="2">
-        <v>3</v>
-      </c>
-      <c r="V4" s="2">
-        <v>4</v>
-      </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y4" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z4" s="45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="24"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-    </row>
-    <row r="6" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <v>1</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="6">
-        <v>202490017</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="E7" s="6">
+        <v>202490087</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -2317,34 +2340,28 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="6">
-        <v>202490023</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="E8" s="6">
+        <v>202490125</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -2353,34 +2370,28 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="6">
-        <v>202490084</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="E9" s="6">
+        <v>202490160</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -2389,34 +2400,28 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="6">
-        <v>202490081</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="E10" s="6">
+        <v>202490161</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -2425,34 +2430,28 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="6">
-        <v>202490087</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="6">
+        <v>202490185</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -2461,34 +2460,28 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-    </row>
-    <row r="12" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="6">
-        <v>202490125</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="E12" s="6">
+        <v>202490206</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -2497,34 +2490,28 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="6">
-        <v>202490160</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="E13" s="6">
+        <v>202490251</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -2533,34 +2520,28 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="6">
-        <v>202490161</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="E14" s="6">
+        <v>202490271</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -2569,34 +2550,28 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="6">
-        <v>202490185</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="E15" s="6">
+        <v>202490284</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -2605,34 +2580,28 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="6">
-        <v>202490206</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="E16" s="6">
+        <v>202490285</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -2641,34 +2610,28 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="6">
-        <v>202490251</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="E17" s="6">
+        <v>202490286</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -2677,34 +2640,28 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="6">
-        <v>202490271</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="E18" s="6">
+        <v>202490289</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -2713,34 +2670,28 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="6">
-        <v>202490284</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="E19" s="6">
+        <v>202490301</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -2749,34 +2700,28 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="6">
-        <v>202490285</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="E20" s="6">
+        <v>202490352</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -2785,34 +2730,28 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="6">
-        <v>202490286</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="E21" s="6">
+        <v>202490377</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -2821,34 +2760,28 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-    </row>
-    <row r="22" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="6">
-        <v>202490289</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="E22" s="6">
+        <v>202490381</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -2857,34 +2790,28 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="6">
-        <v>202490301</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="E23" s="6">
+        <v>202490009</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -2893,34 +2820,28 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="15"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="6">
-        <v>202490352</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="E24" s="6">
+        <v>202490028</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -2929,34 +2850,28 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="6">
-        <v>202490377</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="E25" s="6">
+        <v>202490056</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -2965,34 +2880,28 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="15"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="6">
-        <v>202490381</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
+        <v>41</v>
+      </c>
+      <c r="E26" s="6">
+        <v>202490070</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -3001,34 +2910,28 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="15"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="6">
-        <v>202490009</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="E27" s="6">
+        <v>202490090</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -3037,34 +2940,28 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="15"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="6">
-        <v>202490028</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="E28" s="6">
+        <v>202490099</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -3073,34 +2970,28 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="15"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="6">
-        <v>202490056</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="E29" s="6">
+        <v>202490107</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -3109,268 +3000,17 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="15"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4">
-        <v>24</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="6">
-        <v>202490070</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-    </row>
-    <row r="31" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="4">
-        <v>25</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="6">
-        <v>202490090</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="4">
-        <v>26</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="6">
-        <v>202490099</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="4">
-        <v>27</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="6">
-        <v>202490107</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="105">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:S1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3414,33 +3054,33 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
       <c r="Q1" s="10"/>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -3450,37 +3090,37 @@
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="44" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="42" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -3515,24 +3155,24 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="2">
         <v>1</v>
       </c>
@@ -3557,8 +3197,8 @@
       <c r="P4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43"/>
       <c r="S4" s="2">
         <v>1</v>
       </c>
@@ -3572,27 +3212,27 @@
         <v>4</v>
       </c>
       <c r="W4" s="3"/>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="Y4" s="16" t="s">
+      <c r="Y4" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="24"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="19" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -3601,28 +3241,28 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="22"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
     </row>
     <row r="6" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="19" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -3631,16 +3271,16 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="22"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="47"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
     </row>
     <row r="7" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
@@ -3650,15 +3290,15 @@
       <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="6">
         <v>202490139</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -3667,8 +3307,8 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="51"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -3686,15 +3326,15 @@
       <c r="C8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="6">
         <v>202490199</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -3703,8 +3343,8 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="51"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -3722,15 +3362,15 @@
       <c r="C9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="6">
         <v>202490205</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -3739,8 +3379,8 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="51"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -3758,15 +3398,15 @@
       <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="6">
         <v>202490218</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -3775,8 +3415,8 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="51"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -3794,15 +3434,15 @@
       <c r="C11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="6">
         <v>202490225</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -3811,8 +3451,8 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -3830,15 +3470,15 @@
       <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="6">
         <v>202490249</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -3847,8 +3487,8 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="51"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -3866,15 +3506,15 @@
       <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="6">
         <v>202490257</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -3883,8 +3523,8 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="51"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -3902,15 +3542,15 @@
       <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="6">
         <v>202490330</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -3919,8 +3559,8 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="51"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -3938,15 +3578,15 @@
       <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="6">
         <v>202490340</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -3955,8 +3595,8 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="51"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -3974,15 +3614,15 @@
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="6">
         <v>202490401</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -3991,8 +3631,8 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="51"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -4010,15 +3650,15 @@
       <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="6">
         <v>202490372</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -4027,8 +3667,8 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="51"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -4046,15 +3686,15 @@
       <c r="C18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="6">
         <v>202490010</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -4063,8 +3703,8 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="51"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -4082,15 +3722,15 @@
       <c r="C19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="6">
         <v>202490012</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -4099,8 +3739,8 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="51"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -4118,15 +3758,15 @@
       <c r="C20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="6">
         <v>202490071</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -4135,8 +3775,8 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="51"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -4154,15 +3794,15 @@
       <c r="C21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="6">
         <v>202490080</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -4171,8 +3811,8 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="51"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -4190,15 +3830,15 @@
       <c r="C22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="6">
         <v>202490083</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -4207,8 +3847,8 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="51"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -4226,15 +3866,15 @@
       <c r="C23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="6">
         <v>202490106</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -4243,8 +3883,8 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="15"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="51"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -4262,15 +3902,15 @@
       <c r="C24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="6">
         <v>202490113</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -4279,8 +3919,8 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="51"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -4298,15 +3938,15 @@
       <c r="C25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="6">
         <v>202490124</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -4315,8 +3955,8 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="15"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="51"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -4334,15 +3974,15 @@
       <c r="C26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="6">
         <v>202490129</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -4351,8 +3991,8 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="15"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="51"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
@@ -4370,15 +4010,15 @@
       <c r="C27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="6">
         <v>202490134</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -4387,8 +4027,8 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="15"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="51"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
@@ -4406,15 +4046,15 @@
       <c r="C28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="6">
         <v>202490143</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -4423,8 +4063,8 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="15"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="51"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
@@ -4442,15 +4082,15 @@
       <c r="C29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="6">
         <v>202490151</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -4459,8 +4099,8 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="15"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="51"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -4478,15 +4118,15 @@
       <c r="C30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="6">
         <v>202490176</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -4495,8 +4135,8 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="15"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="51"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -4514,15 +4154,15 @@
       <c r="C31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="6">
         <v>202490262</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -4531,8 +4171,8 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="15"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="51"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
@@ -4550,15 +4190,15 @@
       <c r="C32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="13"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="6">
         <v>202490298</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -4567,8 +4207,8 @@
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="15"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="51"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -4586,15 +4226,15 @@
       <c r="C33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="6">
         <v>202490319</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -4603,8 +4243,8 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="15"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="51"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -4616,99 +4256,6 @@
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="Q29:R29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="Q30:R30"/>
@@ -4721,6 +4268,99 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R2:V2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4763,33 +4403,33 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
       <c r="Q1" s="10"/>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -4799,37 +4439,37 @@
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="44" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="42" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -4864,24 +4504,24 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="2">
         <v>1</v>
       </c>
@@ -4906,8 +4546,8 @@
       <c r="P4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43"/>
       <c r="S4" s="2">
         <v>1</v>
       </c>
@@ -4921,27 +4561,27 @@
         <v>4</v>
       </c>
       <c r="W4" s="3"/>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="Y4" s="16" t="s">
+      <c r="Y4" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="24"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="19" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4950,28 +4590,28 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="22"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
     </row>
     <row r="6" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="19" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -4980,16 +4620,16 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="22"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="47"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
     </row>
     <row r="7" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
@@ -4999,15 +4639,15 @@
       <c r="C7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="6">
         <v>202490326</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -5016,8 +4656,8 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="51"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -5035,15 +4675,15 @@
       <c r="C8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="6">
         <v>202490336</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -5052,8 +4692,8 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="51"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -5071,15 +4711,15 @@
       <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="6">
         <v>202490339</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -5088,8 +4728,8 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="51"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -5107,15 +4747,15 @@
       <c r="C10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="6">
         <v>202490357</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -5124,8 +4764,8 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="51"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -5143,15 +4783,15 @@
       <c r="C11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="6">
         <v>202490051</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -5160,8 +4800,8 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -5179,15 +4819,15 @@
       <c r="C12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="6">
         <v>202490094</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -5196,8 +4836,8 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="51"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -5215,15 +4855,15 @@
       <c r="C13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="6">
         <v>202490105</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -5232,8 +4872,8 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="51"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -5251,15 +4891,15 @@
       <c r="C14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="6">
         <v>202490117</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -5268,8 +4908,8 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="51"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -5287,15 +4927,15 @@
       <c r="C15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="6">
         <v>202490123</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -5304,8 +4944,8 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="51"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -5323,15 +4963,15 @@
       <c r="C16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="6">
         <v>202490146</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -5340,8 +4980,8 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="51"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -5359,15 +4999,15 @@
       <c r="C17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="6">
         <v>202490164</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -5376,8 +5016,8 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="51"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -5395,15 +5035,15 @@
       <c r="C18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="6">
         <v>202490171</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -5412,8 +5052,8 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="51"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -5431,15 +5071,15 @@
       <c r="C19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="6">
         <v>202490178</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -5448,8 +5088,8 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="51"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -5467,15 +5107,15 @@
       <c r="C20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="6">
         <v>202490180</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -5484,8 +5124,8 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="51"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -5503,15 +5143,15 @@
       <c r="C21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="6">
         <v>202490193</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -5520,8 +5160,8 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="51"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -5539,15 +5179,15 @@
       <c r="C22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="6">
         <v>202490201</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -5556,8 +5196,8 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="51"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -5575,15 +5215,15 @@
       <c r="C23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="6">
         <v>202490223</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -5592,8 +5232,8 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="15"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="51"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -5611,15 +5251,15 @@
       <c r="C24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="6">
         <v>202490228</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -5628,8 +5268,8 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="51"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -5647,15 +5287,15 @@
       <c r="C25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="6">
         <v>202490313</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -5664,8 +5304,8 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="15"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="51"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -5683,15 +5323,15 @@
       <c r="C26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="6">
         <v>202490345</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -5700,8 +5340,8 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="15"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="51"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
@@ -5719,15 +5359,15 @@
       <c r="C27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="6">
         <v>202490350</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -5736,8 +5376,8 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="15"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="51"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
@@ -5755,15 +5395,15 @@
       <c r="C28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="6">
         <v>202490351</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -5772,8 +5412,8 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="15"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="51"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
@@ -5791,15 +5431,15 @@
       <c r="C29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="6">
         <v>202490384</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -5808,8 +5448,8 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="15"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="51"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -5827,15 +5467,15 @@
       <c r="C30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="6">
         <v>202490902</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -5844,8 +5484,8 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="15"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="51"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -5863,15 +5503,15 @@
       <c r="C31" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="6">
         <v>202490903</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -5880,8 +5520,8 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="15"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="51"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
@@ -5899,15 +5539,15 @@
       <c r="C32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="13"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="6">
         <v>202490132</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -5916,8 +5556,8 @@
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="15"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="51"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -5935,15 +5575,15 @@
       <c r="C33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="6">
         <v>202490209</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -5952,8 +5592,8 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="15"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="51"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -5965,99 +5605,6 @@
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="Q29:R29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="Q30:R30"/>
@@ -6070,6 +5617,99 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R2:V2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6112,33 +5752,33 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
       <c r="Q1" s="10"/>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -6148,37 +5788,37 @@
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="44" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="42" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -6213,24 +5853,24 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="2">
         <v>1</v>
       </c>
@@ -6255,8 +5895,8 @@
       <c r="P4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43"/>
       <c r="S4" s="2">
         <v>1</v>
       </c>
@@ -6270,27 +5910,27 @@
         <v>4</v>
       </c>
       <c r="W4" s="3"/>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="Y4" s="16" t="s">
+      <c r="Y4" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="24"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="19" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -6299,28 +5939,28 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="22"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
     </row>
     <row r="6" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="19" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -6329,16 +5969,16 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="22"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="47"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
     </row>
     <row r="7" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
@@ -6348,15 +5988,15 @@
       <c r="C7" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="6">
         <v>202490242</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -6365,8 +6005,8 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="51"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -6384,15 +6024,15 @@
       <c r="C8" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="6">
         <v>202490299</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -6401,8 +6041,8 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="51"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -6420,15 +6060,15 @@
       <c r="C9" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="6">
         <v>202490310</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -6437,8 +6077,8 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="51"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -6456,15 +6096,15 @@
       <c r="C10" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="6">
         <v>202490341</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -6473,8 +6113,8 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="51"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -6492,15 +6132,15 @@
       <c r="C11" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="6">
         <v>202490349</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -6509,8 +6149,8 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -6528,15 +6168,15 @@
       <c r="C12" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="6">
         <v>202490367</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -6545,8 +6185,8 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="51"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -6564,15 +6204,15 @@
       <c r="C13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="6">
         <v>202490040</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -6581,8 +6221,8 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="51"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -6600,15 +6240,15 @@
       <c r="C14" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="6">
         <v>202490400</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -6617,8 +6257,8 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="51"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -6636,15 +6276,15 @@
       <c r="C15" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="6">
         <v>202490162</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -6653,8 +6293,8 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="51"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -6672,15 +6312,15 @@
       <c r="C16" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="6">
         <v>202490189</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -6689,8 +6329,8 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="51"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -6708,15 +6348,15 @@
       <c r="C17" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="6">
         <v>202490221</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -6725,8 +6365,8 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="51"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -6744,15 +6384,15 @@
       <c r="C18" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="6">
         <v>202490254</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -6761,8 +6401,8 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="51"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -6780,15 +6420,15 @@
       <c r="C19" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="6">
         <v>202490334</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -6797,8 +6437,8 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="51"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -6816,15 +6456,15 @@
       <c r="C20" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="6">
         <v>202490365</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -6833,8 +6473,8 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="51"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -6846,21 +6486,48 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:E6"/>
-    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="X4:X6"/>
@@ -6870,48 +6537,21 @@
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R1:V1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
